--- a/NotasFiscais.xlsx
+++ b/NotasFiscais.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,10 +476,20 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>item</t>
+          <t>item_1</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>item_2</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>item_3</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>total</t>
         </is>
@@ -528,12 +538,18 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>[{'descricao': 'Produto 1', 'quantidade': '2', 'valorUnitario': '50.00', 'total': '100.00'}, {'descricao': 'Produto 2', 'quantidade': '1', 'valorUnitario': '75.00', 'total': '75.00'}]</t>
+          <t>2x Produto 1 (R$50.00 cada) = R$100.00</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>175.00</t>
+          <t>1x Produto 2 (R$75.00 cada) = R$75.00</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>R$175.00</t>
         </is>
       </c>
     </row>
@@ -580,12 +596,18 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>[{'descricao': 'Produto 7', 'quantidade': '4', 'valorUnitario': '15.00', 'total': '60.00'}, {'descricao': 'Produto 8', 'quantidade': '2', 'valorUnitario': '35.00', 'total': '70.00'}]</t>
+          <t>4x Produto 7 (R$15.00 cada) = R$60.00</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>130.00</t>
+          <t>2x Produto 8 (R$35.00 cada) = R$70.00</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>R$130.00</t>
         </is>
       </c>
     </row>
@@ -632,12 +654,22 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>[{'descricao': 'Produto 3', 'quantidade': '3', 'valorUnitario': '30.00', 'total': '90.00'}, {'descricao': 'Produto 4', 'quantidade': '2', 'valorUnitario': '40.00', 'total': '80.00'}]</t>
+          <t>3x Produto 3 (R$30.00 cada) = R$90.00</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>170.00</t>
+          <t>2x Produto 4 (R$40.00 cada) = R$80.00</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>2x Produto fas (R$40.00 cada) = R$80.00</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>R$170.00</t>
         </is>
       </c>
     </row>
@@ -684,12 +716,18 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>[{'descricao': 'Produto 5', 'quantidade': '5', 'valorUnitario': '20.00', 'total': '100.00'}, {'descricao': 'Produto 6', 'quantidade': '3', 'valorUnitario': '25.00', 'total': '75.00'}]</t>
+          <t>5x Produto 5 (R$20.00 cada) = R$100.00</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>175.00</t>
+          <t>3x Produto 6 (R$25.00 cada) = R$75.00</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>R$175.00</t>
         </is>
       </c>
     </row>
